--- a/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,41%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 68,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,17; 27,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 221,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,69; 39,13</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,78%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; 0,0</t>
         </is>
       </c>
     </row>
@@ -769,27 +769,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-4,37</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -849,27 +849,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,26%</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,36; -2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,36; -2,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 62,28</t>
         </is>
       </c>
     </row>
@@ -934,22 +934,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,97%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 80,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 408,37</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,53%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 62,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,19; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 163,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,19; 0,0</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>10,61</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 31,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 47,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,07</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 18,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -1,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 9,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 23,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -1,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 10,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -2,87</t>
+          <t>-36,87; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -2,87</t>
+          <t>-36,87; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,93</t>
+          <t>0,0; 60,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 0,0</t>
+          <t>-32,14; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 27,12</t>
+          <t>-39,34; 27,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 221,86</t>
+          <t>0,0; 150,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 0,0</t>
+          <t>-32,14; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 39,13</t>
+          <t>-43,22; 40,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 0,0</t>
+          <t>-17,01; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 0,0</t>
+          <t>-19,51; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 0,0</t>
+          <t>-17,01; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 0,0</t>
+          <t>-19,51; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 0,0</t>
+          <t>-23,9; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 0,0</t>
+          <t>-23,9; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 0,0</t>
+          <t>-32,45; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,39</t>
+          <t>0,0; 45,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 0,0</t>
+          <t>-32,45; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,28</t>
+          <t>0,0; 83,56</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,38</t>
+          <t>0,0; 82,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,14 +987,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 408,37</t>
+          <t>0,0; 482,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,01</t>
+          <t>0,0; 62,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 0,0</t>
+          <t>-22,2; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 0,0</t>
+          <t>-13,06; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 163,04</t>
+          <t>0,0; 164,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 0,0</t>
+          <t>-22,2; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 0,0</t>
+          <t>-13,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 31,6</t>
+          <t>-1,2; 33,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,97</t>
+          <t>0,0; 24,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 47,87</t>
+          <t>-0,14; 52,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,07</t>
+          <t>0,0; 31,69</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 18,84</t>
+          <t>1,21; 18,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,59</t>
+          <t>-1,5; 10,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 23,4</t>
+          <t>1,26; 22,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,88</t>
+          <t>-1,47; 11,47</t>
         </is>
       </c>
     </row>
